--- a/sourceData/air_minum.xlsx
+++ b/sourceData/air_minum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\binus\gemastik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\GitHub\gemastik_time_series\sourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5FD8B71E-A703-4054-ADDC-2795710A69B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01E2328-6BA6-4CEA-B2F1-9C344FB18DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1009,20 +1009,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
